--- a/biology/Zoologie/Heliconius_ricini/Heliconius_ricini.xlsx
+++ b/biology/Zoologie/Heliconius_ricini/Heliconius_ricini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius ricini est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,14 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius ricini a été décrit par Carl von Linné en 1758 sous le nom initial de Papilio ricini[1].
-Sous-espèces
-Heliconius ricini ricini; présent au Surinam et Guyane.
-Heliconius ricini  insulanus (Stichel, 1909); présent à Trinité-et-Tobago[1].
-Nom vernaculaire
-Heliconius ricini se nomme Ricini Longwing en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius ricini a été décrit par Carl von Linné en 1758 sous le nom initial de Papilio ricini.
 </t>
         </is>
       </c>
@@ -544,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius ricini ricini; présent au Surinam et Guyane.
+Heliconius ricini  insulanus (Stichel, 1909); présent à Trinité-et-Tobago.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_ricini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_ricini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius ricini se nomme Ricini Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heliconius_ricini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_ricini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius ricini est plus petit que les autres  Heliconius avec des antennes courtes, un corps fin et aux ailes antérieures allongées à bord interne concave.
 Le dessus est de couleur noire avec aux ailes antérieures deux barres jaune dont une sépare l'apex du reste de l'aile, et aux ailes postérieures une flaque rouge ne laissant qu'une bande boire le long du bord externe.
@@ -556,98 +641,142 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Heliconius_ricini</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_ricini</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heliconius_ricini</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_ricini</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Granadilla (Passifloraceae)[3].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Granadilla (Passifloraceae).
 Sur les autres projets Wikimedia :
 Heliconius ricini, sur Wikimedia CommonsHeliconius ricini, sur Wikispecies
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_ricini</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_ricini</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_ricini</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_ricini</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius ricini est présent à Trinité-et-Tobago, au Surinam, en Guyana, en Guyane et dans le nord du Brésil[3],[1],[2].
-Biotope
-Heliconius ricini réside dans la savane[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius ricini est présent à Trinité-et-Tobago, au Surinam, en Guyana, en Guyane et dans le nord du Brésil.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Heliconius_ricini</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_ricini</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_ricini</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_ricini</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius ricini réside dans la savane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_ricini</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_ricini</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
